--- a/lc/lc_report.xlsx
+++ b/lc/lc_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/dev/PractiseCoding/lc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B90010E-6161-6B4B-8B7B-27D7D66E6468}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54005067-55D8-4046-811A-B233108FDD16}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-10840" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{E41591E5-CCD4-4540-8BB6-AAC43D66D3F8}"/>
+    <workbookView xWindow="-38400" yWindow="-10380" windowWidth="38400" windowHeight="21140" xr2:uid="{E41591E5-CCD4-4540-8BB6-AAC43D66D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>bin(3)="0b11"</t>
+  </si>
+  <si>
+    <t>bin(0)="0b0"</t>
+  </si>
+  <si>
+    <t>flatten binary tree to linked list</t>
+  </si>
+  <si>
+    <t>binary tree</t>
+  </si>
+  <si>
+    <t>root in-place</t>
   </si>
 </sst>
 </file>
@@ -437,13 +449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8DD2BA-D9CE-C74F-B867-C2CFA462735B}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -501,6 +516,32 @@
       </c>
       <c r="I2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -513,7 +554,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,20 +597,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69FBB32-5A07-DB44-8E82-CCC677035690}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/lc/lc_report.xlsx
+++ b/lc/lc_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/dev/PractiseCoding/lc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54005067-55D8-4046-811A-B233108FDD16}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ABFC73-31EF-F84C-98AA-7B3ADA7C9475}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-10380" windowWidth="38400" windowHeight="21140" xr2:uid="{E41591E5-CCD4-4540-8BB6-AAC43D66D3F8}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -97,6 +97,33 @@
   </si>
   <si>
     <t>root in-place</t>
+  </si>
+  <si>
+    <t>binary search to to greater sum tree</t>
+  </si>
+  <si>
+    <t>bst</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>gray code</t>
+  </si>
+  <si>
+    <t>recite!</t>
+  </si>
+  <si>
+    <t>simplify path</t>
+  </si>
+  <si>
+    <t>string.rfind()</t>
+  </si>
+  <si>
+    <t>reverse find</t>
+  </si>
+  <si>
+    <t>stack</t>
   </si>
 </sst>
 </file>
@@ -449,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8DD2BA-D9CE-C74F-B867-C2CFA462735B}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,6 +571,78 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -551,10 +650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A761690-2B1A-184F-9B7E-BB18D9E465B6}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,6 +667,14 @@
       </c>
       <c r="B1" s="1">
         <v>4.3750000000000004E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/lc/lc_report.xlsx
+++ b/lc/lc_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/dev/PractiseCoding/lc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clair/dev/coding/PractiseCoding/lc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ABFC73-31EF-F84C-98AA-7B3ADA7C9475}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E359079-CF4E-2749-888A-088A4A00B615}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-10380" windowWidth="38400" windowHeight="21140" xr2:uid="{E41591E5-CCD4-4540-8BB6-AAC43D66D3F8}"/>
+    <workbookView xWindow="17700" yWindow="-17120" windowWidth="28800" windowHeight="16540" xr2:uid="{E41591E5-CCD4-4540-8BB6-AAC43D66D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>stack</t>
+  </si>
+  <si>
+    <t>happy number</t>
+  </si>
+  <si>
+    <t>list to binary search tree (use breath first search &amp; depth first search)</t>
+  </si>
+  <si>
+    <t>cannot only check the re-appearance of the original number, cause it might not re-appear, need to build a list</t>
   </si>
 </sst>
 </file>
@@ -476,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8DD2BA-D9CE-C74F-B867-C2CFA462735B}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,6 +650,49 @@
       </c>
       <c r="I6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/lc/lc_report.xlsx
+++ b/lc/lc_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clair/dev/coding/PractiseCoding/lc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E359079-CF4E-2749-888A-088A4A00B615}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F0527D-ACA4-4A43-8BC3-A6FE1FE05FF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17700" yWindow="-17120" windowWidth="28800" windowHeight="16540" xr2:uid="{E41591E5-CCD4-4540-8BB6-AAC43D66D3F8}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>cannot only check the re-appearance of the original number, cause it might not re-appear, need to build a list</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>reveal card in increasing order</t>
+  </si>
+  <si>
+    <t>if list has None element, list.extend(list) will be [None]</t>
   </si>
 </sst>
 </file>
@@ -485,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8DD2BA-D9CE-C74F-B867-C2CFA462735B}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,6 +702,37 @@
       </c>
       <c r="H8">
         <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/lc/lc_report.xlsx
+++ b/lc/lc_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clair/dev/coding/PractiseCoding/lc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F0527D-ACA4-4A43-8BC3-A6FE1FE05FF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07631140-EAED-7D4B-B556-17ACF34948AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17700" yWindow="-17120" windowWidth="28800" windowHeight="16540" xr2:uid="{E41591E5-CCD4-4540-8BB6-AAC43D66D3F8}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>if list has None element, list.extend(list) will be [None]</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>recursion</t>
   </si>
 </sst>
 </file>
@@ -497,7 +503,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,6 +739,21 @@
       </c>
       <c r="C10" t="s">
         <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/lc/lc_report.xlsx
+++ b/lc/lc_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clair/dev/coding/PractiseCoding/lc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07631140-EAED-7D4B-B556-17ACF34948AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA88F065-9E6B-BB44-A160-F75518C0FAC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17700" yWindow="-17120" windowWidth="28800" windowHeight="16540" xr2:uid="{E41591E5-CCD4-4540-8BB6-AAC43D66D3F8}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>recursion</t>
+  </si>
+  <si>
+    <t>positions of large group</t>
   </si>
 </sst>
 </file>
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8DD2BA-D9CE-C74F-B867-C2CFA462735B}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,6 +757,23 @@
       </c>
       <c r="H10">
         <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/lc/lc_report.xlsx
+++ b/lc/lc_report.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clair/dev/coding/PractiseCoding/lc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clair\dev\PractiseCoding\lc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA88F065-9E6B-BB44-A160-F75518C0FAC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89381134-8403-4421-9EB4-418D67706A4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="-17120" windowWidth="28800" windowHeight="16540" xr2:uid="{E41591E5-CCD4-4540-8BB6-AAC43D66D3F8}"/>
+    <workbookView xWindow="3495" yWindow="2940" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E41591E5-CCD4-4540-8BB6-AAC43D66D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="String" sheetId="2" r:id="rId2"/>
-    <sheet name="List" sheetId="3" r:id="rId3"/>
-    <sheet name="Bit" sheetId="4" r:id="rId4"/>
+    <sheet name="BST" sheetId="5" r:id="rId2"/>
+    <sheet name="String" sheetId="2" r:id="rId3"/>
+    <sheet name="List" sheetId="3" r:id="rId4"/>
+    <sheet name="Bit" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -151,18 +152,85 @@
   </si>
   <si>
     <t>positions of large group</t>
+  </si>
+  <si>
+    <t>kth smallest element in bst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs has inplace,preplace,postplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def inorder( r ): return inorder(r.left) + [r.val] + inorder(r.right) if r else []</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 2 5 1 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 4 5 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def preorder( r ): return [r.val] + preorder(r.left) + preorder(r.right)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 5 2 3 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def postorder( r ): return postorder(r.left) + postorder(r.right) + [r.val]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -204,6 +272,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>520065</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Example Tree">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4209B006-BC8E-4BBC-9C25-EAF5A7C6393F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="247650" y="1059180"/>
+          <a:ext cx="2472690" cy="1493520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,18 +637,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8DD2BA-D9CE-C74F-B867-C2CFA462735B}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -543,7 +677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -572,7 +706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -598,7 +732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -621,7 +755,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -644,7 +778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -670,7 +804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -690,7 +824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -713,7 +847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -733,7 +867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -759,7 +893,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -776,12 +910,97 @@
         <v>30</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>230</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12">
+        <v>150</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E77D5FD-08ED-4750-8EDA-AFB321EB3791}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A761690-2B1A-184F-9B7E-BB18D9E465B6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -789,12 +1008,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -802,7 +1021,7 @@
         <v>4.3750000000000004E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -811,11 +1030,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F4E0E3-0E19-5D41-93F4-F563893D6BE8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -823,19 +1043,20 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69FBB32-5A07-DB44-8E82-CCC677035690}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -843,12 +1064,12 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -860,6 +1081,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lc/lc_report.xlsx
+++ b/lc/lc_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clair\dev\PractiseCoding\lc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clair/dev/coding/PractiseCoding/lc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89381134-8403-4421-9EB4-418D67706A4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C49522-537C-3148-B4A0-2C7A26E257EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="2940" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E41591E5-CCD4-4540-8BB6-AAC43D66D3F8}"/>
+    <workbookView xWindow="3500" yWindow="2940" windowWidth="21600" windowHeight="11380" xr2:uid="{E41591E5-CCD4-4540-8BB6-AAC43D66D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -212,6 +212,12 @@
   <si>
     <t>def postorder( r ): return postorder(r.left) + postorder(r.right) + [r.val]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house robber 3</t>
+  </si>
+  <si>
+    <t>d&amp;c</t>
   </si>
 </sst>
 </file>
@@ -222,13 +228,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -637,18 +643,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8DD2BA-D9CE-C74F-B867-C2CFA462735B}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -677,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -706,7 +712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -732,7 +738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -755,7 +761,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -778,7 +784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -804,7 +810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -824,7 +830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -847,7 +853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -867,7 +873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -893,7 +899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -910,7 +916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -937,6 +943,29 @@
       </c>
       <c r="I12" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -949,18 +978,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E77D5FD-08ED-4750-8EDA-AFB321EB3791}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -971,7 +1000,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -982,7 +1011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1008,12 +1037,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1021,7 +1050,7 @@
         <v>4.3750000000000004E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1043,9 +1072,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1064,12 +1093,12 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>

--- a/lc/lc_report.xlsx
+++ b/lc/lc_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clair/dev/coding/PractiseCoding/lc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C49522-537C-3148-B4A0-2C7A26E257EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0EA5FF-EF09-F348-AFE0-F514D8AEEA69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="2940" windowWidth="21600" windowHeight="11380" xr2:uid="{E41591E5-CCD4-4540-8BB6-AAC43D66D3F8}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -218,6 +218,24 @@
   </si>
   <si>
     <t>d&amp;c</t>
+  </si>
+  <si>
+    <t>contains duplicates 3</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>Merge k sorted list</t>
+  </si>
+  <si>
+    <t>todo 23</t>
+  </si>
+  <si>
+    <t>todo 41</t>
+  </si>
+  <si>
+    <t>first missing positive</t>
   </si>
 </sst>
 </file>
@@ -643,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8DD2BA-D9CE-C74F-B867-C2CFA462735B}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,6 +984,57 @@
       </c>
       <c r="H13">
         <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
